--- a/NformTester/NformTester/keywordscripts/TST425_SetActionForAlarmOrEvent.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST425_SetActionForAlarmOrEvent.xlsx
@@ -1208,7 +1208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7704" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7603" uniqueCount="846">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3622,9 +3622,6 @@
     <t>;Clear operation.</t>
   </si>
   <si>
-    <t>;Check Server Log</t>
-  </si>
-  <si>
     <t>Sashimi</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3649,18 +3646,6 @@
     <t>F</t>
   </si>
   <si>
-    <t>"Administrator"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"admin"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"localhost"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3669,190 +3654,147 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>;Add some devices.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleManual</t>
+  </si>
+  <si>
+    <t>"ABC GXT UPS"</t>
+  </si>
+  <si>
+    <t>"Description for GXT"</t>
+  </si>
+  <si>
+    <t>"Liebert GXT UPS/WebCard"</t>
+  </si>
+  <si>
+    <t>"SNMP"</t>
+  </si>
+  <si>
+    <t>10.146.83.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Checked</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>;Add some devices.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SingleManual</t>
-  </si>
-  <si>
-    <t>"ABC GXT UPS"</t>
-  </si>
-  <si>
-    <t>"Description for GXT"</t>
-  </si>
-  <si>
-    <t>"Liebert GXT UPS/WebCard"</t>
-  </si>
-  <si>
-    <t>"SNMP"</t>
-  </si>
-  <si>
-    <t>10.146.83.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pause</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Click</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Click</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Checked</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Text</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>testpublic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"public"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormManaged_Devices</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"{CONTROL down}{Akey}{CONTROL up}"</t>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enabled</t>
+  </si>
+  <si>
+    <t>"action-one"</t>
+  </si>
+  <si>
+    <t>"nform testing"</t>
+  </si>
+  <si>
+    <t>"test-writefile"</t>
+  </si>
+  <si>
+    <t>"text"</t>
+  </si>
+  <si>
+    <t>"Unicode"</t>
+  </si>
+  <si>
+    <t>"2"</t>
+  </si>
+  <si>
+    <t>"C:\Nform\result.dat"</t>
+  </si>
+  <si>
+    <t>"Run-command"</t>
+  </si>
+  <si>
+    <t>"C:\Nform\result2.dat"</t>
+  </si>
+  <si>
+    <t>"E-mail setting"</t>
+  </si>
+  <si>
+    <t>nform@tesitng.com; nformG2</t>
+  </si>
+  <si>
+    <t>"this is a testing"</t>
+  </si>
+  <si>
+    <t>"10"</t>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"test-writedata"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABC GXT UPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Create an action, add three actions, Run-command,Email and write file.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>;should be reflected in 'Device Properties' dialog box say in SNMP and Communication tab.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>;Communication tab should be reflected at Global values.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Snmp tab should be reflected.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Use global port (65534)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Snmp tab should be reflected. Global values.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"nform"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Login as new user.A user without any rights should not to allow configure the SNMP request port, request and trap community string.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Devices</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Login as admin.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testpublic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"public"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormManaged_Devices</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>"{CONTROL down}{Akey}{CONTROL up}"</t>
-  </si>
-  <si>
-    <t>Pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">;Prerequisites 1. NformG2 software installed on windows operating System. 2. Advanced communication license must be added before adding devices. 3. User should have permission to 'Write Data Action' under Groups. 4. SNMP devices should be added before going for test action. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>;The goal of this test is to configure and test a Set Action is to generate traps when related action set is under action.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>;Create an action, add three actions, Run-command,Email and write file.</t>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enabled</t>
-  </si>
-  <si>
-    <t>"action-one"</t>
-  </si>
-  <si>
-    <t>"nform testing"</t>
-  </si>
-  <si>
-    <t>"test-writefile"</t>
-  </si>
-  <si>
-    <t>"text"</t>
-  </si>
-  <si>
-    <t>"Unicode"</t>
-  </si>
-  <si>
-    <t>"2"</t>
-  </si>
-  <si>
-    <t>"C:\Nform\result.dat"</t>
-  </si>
-  <si>
-    <t>"Run-command"</t>
-  </si>
-  <si>
-    <t>"C:\Nform\result2.dat"</t>
-  </si>
-  <si>
-    <t>"E-mail setting"</t>
-  </si>
-  <si>
-    <t>nform@tesitng.com; nformG2</t>
-  </si>
-  <si>
-    <t>"this is a testing"</t>
-  </si>
-  <si>
-    <t>"10"</t>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"test-writedata"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ABC GXT UPS</t>
+    <t xml:space="preserve">;Prerequisites 1. NformG2 software installed on windows operating System. 2. Advanced communication license must be added before adding devices. 3. User should have permission to 'Write Data Action' under Groups. 4. SNMP devices should be added before going for test action. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4084,21 +4026,7 @@
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -4851,9 +4779,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O141"/>
+  <dimension ref="A1:O106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4943,7 +4873,7 @@
         <v>768</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
@@ -4984,7 +4914,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
@@ -5015,7 +4945,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -5040,7 +4970,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -5065,7 +4995,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -5084,13 +5014,13 @@
         <v>765</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>839</v>
+        <v>823</v>
       </c>
       <c r="C8" s="5">
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>577</v>
@@ -5100,22 +5030,22 @@
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>811</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>816</v>
-      </c>
       <c r="J8" s="5" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="2"/>
@@ -5152,7 +5082,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>843</v>
+        <v>824</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>19</v>
@@ -5181,7 +5111,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>843</v>
+        <v>824</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>19</v>
@@ -5210,7 +5140,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>843</v>
+        <v>824</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>306</v>
@@ -5222,7 +5152,7 @@
         <v>7</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="I12" s="5" t="b">
         <v>1</v>
@@ -5243,7 +5173,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>756</v>
@@ -5270,7 +5200,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>843</v>
+        <v>824</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>306</v>
@@ -5299,7 +5229,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>843</v>
+        <v>824</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>310</v>
@@ -5311,7 +5241,7 @@
         <v>4</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>845</v>
+        <v>826</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -5330,7 +5260,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>843</v>
+        <v>824</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>310</v>
@@ -5342,7 +5272,7 @@
         <v>4</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>846</v>
+        <v>827</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -5361,7 +5291,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>843</v>
+        <v>824</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>310</v>
@@ -5390,7 +5320,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>316</v>
@@ -5421,7 +5351,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>316</v>
@@ -5450,7 +5380,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>843</v>
+        <v>824</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>317</v>
@@ -5462,7 +5392,7 @@
         <v>4</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>859</v>
+        <v>840</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="5"/>
@@ -5481,7 +5411,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>843</v>
+        <v>824</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>317</v>
@@ -5493,7 +5423,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>846</v>
+        <v>827</v>
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="5"/>
@@ -5508,7 +5438,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>317</v>
@@ -5520,7 +5450,7 @@
         <v>13</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>860</v>
+        <v>841</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="5"/>
@@ -5535,7 +5465,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>317</v>
@@ -5547,7 +5477,7 @@
         <v>57</v>
       </c>
       <c r="H23" s="11">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I23" s="11">
         <v>0</v>
@@ -5564,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>843</v>
+        <v>824</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>317</v>
@@ -5590,20 +5520,22 @@
     </row>
     <row r="25" spans="1:15">
       <c r="C25" s="5">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>843</v>
+        <v>801</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>317</v>
+        <v>620</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="H25" s="11"/>
-      <c r="I25" s="5"/>
+      <c r="I25" s="11"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
@@ -5613,16 +5545,20 @@
     </row>
     <row r="26" spans="1:15">
       <c r="C26" s="5">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+        <v>620</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="5"/>
@@ -5634,18 +5570,24 @@
     </row>
     <row r="27" spans="1:15">
       <c r="C27" s="5">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="5"/>
+        <v>361</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="I27" s="11"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
@@ -5655,16 +5597,20 @@
     </row>
     <row r="28" spans="1:15">
       <c r="C28" s="5">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>843</v>
+        <v>801</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
+        <v>361</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
       <c r="J28" s="5"/>
@@ -5676,18 +5622,24 @@
     </row>
     <row r="29" spans="1:15">
       <c r="C29" s="5">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="5"/>
+        <v>310</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>828</v>
+      </c>
+      <c r="I29" s="11"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
@@ -5697,18 +5649,20 @@
     </row>
     <row r="30" spans="1:15">
       <c r="C30" s="5">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>843</v>
+        <v>799</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="F30" s="5"/>
+        <v>756</v>
+      </c>
+      <c r="F30" s="5">
+        <v>2</v>
+      </c>
       <c r="G30" s="5"/>
       <c r="H30" s="11"/>
-      <c r="I30" s="5"/>
+      <c r="I30" s="11"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
@@ -5718,18 +5672,22 @@
     </row>
     <row r="31" spans="1:15">
       <c r="C31" s="5">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>843</v>
+        <v>801</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
+        <v>310</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
@@ -5739,18 +5697,22 @@
     </row>
     <row r="32" spans="1:15">
       <c r="C32" s="5">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>843</v>
+        <v>801</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
+        <v>316</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H32" s="11"/>
-      <c r="I32" s="5"/>
+      <c r="I32" s="11"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -5760,16 +5722,20 @@
     </row>
     <row r="33" spans="3:15">
       <c r="C33" s="5">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>843</v>
+        <v>801</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
+        <v>316</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H33" s="11"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
@@ -5781,17 +5747,23 @@
     </row>
     <row r="34" spans="3:15">
       <c r="C34" s="5">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>843</v>
+        <v>801</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="11"/>
+        <v>355</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>833</v>
+      </c>
       <c r="I34" s="11"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
@@ -5802,17 +5774,23 @@
     </row>
     <row r="35" spans="3:15">
       <c r="C35" s="5">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>843</v>
+        <v>801</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="11"/>
+        <v>355</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>827</v>
+      </c>
       <c r="I35" s="11"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
@@ -5823,17 +5801,23 @@
     </row>
     <row r="36" spans="3:15">
       <c r="C36" s="5">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>843</v>
+        <v>801</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="11"/>
+        <v>355</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>834</v>
+      </c>
       <c r="I36" s="11"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
@@ -5844,21 +5828,23 @@
     </row>
     <row r="37" spans="3:15">
       <c r="C37" s="5">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>620</v>
+        <v>355</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>17</v>
+        <v>357</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H37" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>829</v>
+      </c>
       <c r="I37" s="11"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
@@ -5869,21 +5855,23 @@
     </row>
     <row r="38" spans="3:15">
       <c r="C38" s="5">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>620</v>
+        <v>355</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>17</v>
+        <v>360</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H38" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>831</v>
+      </c>
       <c r="I38" s="11"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
@@ -5894,23 +5882,19 @@
     </row>
     <row r="39" spans="3:15">
       <c r="C39" s="5">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>851</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="F39" s="5">
+        <v>2</v>
+      </c>
+      <c r="G39" s="5"/>
+      <c r="H39" s="11"/>
       <c r="I39" s="11"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
@@ -5921,13 +5905,13 @@
     </row>
     <row r="40" spans="3:15">
       <c r="C40" s="5">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>17</v>
@@ -5946,23 +5930,19 @@
     </row>
     <row r="41" spans="3:15">
       <c r="C41" s="5">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>847</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="F41" s="5">
+        <v>2</v>
+      </c>
+      <c r="G41" s="5"/>
+      <c r="H41" s="11"/>
       <c r="I41" s="11"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
@@ -5973,18 +5953,20 @@
     </row>
     <row r="42" spans="3:15">
       <c r="C42" s="5">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="F42" s="5">
-        <v>2</v>
-      </c>
-      <c r="G42" s="5"/>
+        <v>310</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
       <c r="J42" s="5"/>
@@ -5996,22 +5978,22 @@
     </row>
     <row r="43" spans="3:15">
       <c r="C43" s="5">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>183</v>
+        <v>280</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
+      <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
@@ -6021,22 +6003,22 @@
     </row>
     <row r="44" spans="3:15">
       <c r="C44" s="5">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>316</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>283</v>
+        <v>17</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
+      <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
@@ -6046,21 +6028,23 @@
     </row>
     <row r="45" spans="3:15">
       <c r="C45" s="5">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>17</v>
+        <v>256</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H45" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>835</v>
+      </c>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
@@ -6071,24 +6055,24 @@
     </row>
     <row r="46" spans="3:15">
       <c r="C46" s="5">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H46" s="11" t="s">
-        <v>852</v>
-      </c>
-      <c r="I46" s="11"/>
+      <c r="H46" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="I46" s="5"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
@@ -6098,24 +6082,22 @@
     </row>
     <row r="47" spans="3:15">
       <c r="C47" s="5">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>255</v>
+        <v>13</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>846</v>
-      </c>
-      <c r="I47" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
@@ -6125,24 +6107,26 @@
     </row>
     <row r="48" spans="3:15">
       <c r="C48" s="5">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>853</v>
-      </c>
-      <c r="I48" s="11"/>
+        <v>57</v>
+      </c>
+      <c r="H48" s="5">
+        <v>1</v>
+      </c>
+      <c r="I48" s="5">
+        <v>2</v>
+      </c>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
@@ -6152,23 +6136,21 @@
     </row>
     <row r="49" spans="3:15">
       <c r="C49" s="5">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>357</v>
+        <v>17</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>848</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H49" s="11"/>
       <c r="I49" s="11"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
@@ -6179,24 +6161,24 @@
     </row>
     <row r="50" spans="3:15">
       <c r="C50" s="5">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H50" s="11" t="s">
-        <v>850</v>
-      </c>
-      <c r="I50" s="11"/>
+      <c r="H50" s="18" t="s">
+        <v>836</v>
+      </c>
+      <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
@@ -6206,20 +6188,22 @@
     </row>
     <row r="51" spans="3:15">
       <c r="C51" s="5">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="F51" s="5">
-        <v>2</v>
-      </c>
-      <c r="G51" s="5"/>
+        <v>332</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
+      <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
@@ -6229,22 +6213,24 @@
     </row>
     <row r="52" spans="3:15">
       <c r="C52" s="5">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>17</v>
+        <v>333</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
@@ -6254,20 +6240,24 @@
     </row>
     <row r="53" spans="3:15">
       <c r="C53" s="5">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="F53" s="5">
-        <v>2</v>
-      </c>
-      <c r="G53" s="5"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
+        <v>332</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="I53" s="5"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
@@ -6277,21 +6267,23 @@
     </row>
     <row r="54" spans="3:15">
       <c r="C54" s="5">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>183</v>
+        <v>340</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H54" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>838</v>
+      </c>
       <c r="I54" s="11"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
@@ -6302,22 +6294,22 @@
     </row>
     <row r="55" spans="3:15">
       <c r="C55" s="5">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>280</v>
+        <v>341</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H55" s="11"/>
-      <c r="I55" s="5"/>
+      <c r="I55" s="11"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
@@ -6327,22 +6319,22 @@
     </row>
     <row r="56" spans="3:15">
       <c r="C56" s="5">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>17</v>
+        <v>342</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H56" s="11"/>
-      <c r="I56" s="5"/>
+      <c r="I56" s="11"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
@@ -6352,24 +6344,22 @@
     </row>
     <row r="57" spans="3:15">
       <c r="C57" s="5">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>332</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>256</v>
+        <v>335</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H57" s="11" t="s">
-        <v>854</v>
-      </c>
-      <c r="I57" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
@@ -6379,24 +6369,24 @@
     </row>
     <row r="58" spans="3:15">
       <c r="C58" s="5">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>255</v>
+        <v>349</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>846</v>
-      </c>
-      <c r="I58" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>830</v>
+      </c>
+      <c r="I58" s="11"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
@@ -6406,22 +6396,24 @@
     </row>
     <row r="59" spans="3:15">
       <c r="C59" s="5">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="F59" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="G59" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G59" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
+      <c r="H59" s="11" t="s">
+        <v>830</v>
+      </c>
+      <c r="I59" s="11"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
@@ -6431,26 +6423,22 @@
     </row>
     <row r="60" spans="3:15">
       <c r="C60" s="5">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H60" s="5">
-        <v>1</v>
-      </c>
-      <c r="I60" s="5">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
@@ -6460,13 +6448,13 @@
     </row>
     <row r="61" spans="3:15">
       <c r="C61" s="5">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>17</v>
@@ -6485,24 +6473,22 @@
     </row>
     <row r="62" spans="3:15">
       <c r="C62" s="5">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>332</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>337</v>
+        <v>17</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="18" t="s">
-        <v>855</v>
-      </c>
-      <c r="I62" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
@@ -6512,16 +6498,16 @@
     </row>
     <row r="63" spans="3:15">
       <c r="C63" s="5">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>333</v>
+        <v>17</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>2</v>
@@ -6537,23 +6523,19 @@
     </row>
     <row r="64" spans="3:15">
       <c r="C64" s="5">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H64" s="5" t="s">
-        <v>848</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="F64" s="5">
+        <v>2</v>
+      </c>
+      <c r="G64" s="5"/>
+      <c r="H64" s="11"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
@@ -6564,23 +6546,21 @@
     </row>
     <row r="65" spans="3:15">
       <c r="C65" s="5">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>802</v>
+        <v>839</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>334</v>
+        <v>174</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>856</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
@@ -6591,24 +6571,24 @@
     </row>
     <row r="66" spans="3:15">
       <c r="C66" s="5">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>857</v>
-      </c>
-      <c r="I66" s="11"/>
+        <v>835</v>
+      </c>
+      <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
@@ -6618,22 +6598,22 @@
     </row>
     <row r="67" spans="3:15">
       <c r="C67" s="5">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>341</v>
+        <v>99</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
@@ -6643,16 +6623,16 @@
     </row>
     <row r="68" spans="3:15">
       <c r="C68" s="5">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>342</v>
+        <v>99</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>2</v>
@@ -6668,20 +6648,18 @@
     </row>
     <row r="69" spans="3:15">
       <c r="C69" s="5">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="F69" s="5">
+        <v>2</v>
+      </c>
+      <c r="G69" s="5"/>
       <c r="H69" s="11"/>
       <c r="I69" s="11"/>
       <c r="J69" s="5"/>
@@ -6691,26 +6669,18 @@
       <c r="N69" s="7"/>
       <c r="O69" s="2"/>
     </row>
-    <row r="70" spans="3:15">
+    <row r="70" spans="3:15" ht="15">
       <c r="C70" s="5">
-        <v>69</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>802</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H70" s="11" t="s">
-        <v>849</v>
-      </c>
-      <c r="I70" s="11"/>
+        <v>81</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="E70" s="11"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
@@ -6720,24 +6690,22 @@
     </row>
     <row r="71" spans="3:15">
       <c r="C71" s="5">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>802</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>348</v>
+        <v>793</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>350</v>
+        <v>22</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H71" s="11" t="s">
-        <v>849</v>
-      </c>
-      <c r="I71" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
@@ -6747,22 +6715,22 @@
     </row>
     <row r="72" spans="3:15">
       <c r="C72" s="5">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>802</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>348</v>
+        <v>793</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>353</v>
+        <v>78</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
@@ -6772,22 +6740,24 @@
     </row>
     <row r="73" spans="3:15">
       <c r="C73" s="5">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>348</v>
+        <v>794</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>17</v>
+        <v>578</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="I73" s="5"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
@@ -6797,22 +6767,22 @@
     </row>
     <row r="74" spans="3:15">
       <c r="C74" s="5">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>332</v>
+        <v>794</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>17</v>
+        <v>174</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H74" s="11"/>
-      <c r="I74" s="11"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
@@ -6820,66 +6790,60 @@
       <c r="N74" s="7"/>
       <c r="O74" s="2"/>
     </row>
-    <row r="75" spans="3:15">
+    <row r="75" spans="3:15" ht="15">
       <c r="C75" s="5">
-        <v>74</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>802</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="E75" s="11"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
       <c r="H75" s="11"/>
-      <c r="I75" s="5"/>
+      <c r="I75" s="11"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
       <c r="M75" s="5"/>
       <c r="N75" s="7"/>
-      <c r="O75" s="2"/>
     </row>
     <row r="76" spans="3:15">
       <c r="C76" s="5">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>800</v>
-      </c>
-      <c r="E76" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="F76" s="5">
-        <v>2</v>
-      </c>
-      <c r="G76" s="5"/>
-      <c r="H76" s="11"/>
+        <v>803</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
       <c r="M76" s="5"/>
-      <c r="N76" s="7"/>
-      <c r="O76" s="2"/>
+      <c r="N76" s="16"/>
     </row>
     <row r="77" spans="3:15">
       <c r="C77" s="5">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>858</v>
-      </c>
-      <c r="E77" s="11" t="s">
-        <v>306</v>
+        <v>803</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="G77" s="5" t="s">
         <v>2</v>
@@ -6890,70 +6854,67 @@
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
-      <c r="N77" s="7"/>
-      <c r="O77" s="2"/>
+      <c r="N77" s="16"/>
     </row>
     <row r="78" spans="3:15">
       <c r="C78" s="5">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>310</v>
+        <v>241</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>315</v>
+        <v>252</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H78" s="11" t="s">
-        <v>854</v>
+        <v>56</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>804</v>
       </c>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
       <c r="M78" s="5"/>
-      <c r="N78" s="7"/>
-      <c r="O78" s="2"/>
+      <c r="N78" s="16"/>
     </row>
     <row r="79" spans="3:15">
       <c r="C79" s="5">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>310</v>
+        <v>241</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>99</v>
+        <v>245</v>
       </c>
       <c r="G79" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H79" s="5"/>
+      <c r="H79" s="11"/>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
       <c r="M79" s="5"/>
-      <c r="N79" s="7"/>
-      <c r="O79" s="2"/>
+      <c r="N79" s="16"/>
     </row>
     <row r="80" spans="3:15">
       <c r="C80" s="5">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>306</v>
+        <v>241</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>99</v>
@@ -6967,18 +6928,17 @@
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
       <c r="M80" s="5"/>
-      <c r="N80" s="7"/>
-      <c r="O80" s="2"/>
+      <c r="N80" s="16"/>
     </row>
     <row r="81" spans="3:15">
       <c r="C81" s="5">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>800</v>
+        <v>813</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>756</v>
+        <v>812</v>
       </c>
       <c r="F81" s="5">
         <v>2</v>
@@ -6990,19 +6950,24 @@
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
       <c r="M81" s="5"/>
-      <c r="N81" s="7"/>
-      <c r="O81" s="2"/>
+      <c r="N81" s="16"/>
     </row>
-    <row r="82" spans="3:15" ht="15">
+    <row r="82" spans="3:15">
       <c r="C82" s="5">
-        <v>81</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>824</v>
-      </c>
-      <c r="E82" s="11"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
+        <v>116</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>793</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>814</v>
+      </c>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
@@ -7014,19 +6979,19 @@
     </row>
     <row r="83" spans="3:15">
       <c r="C83" s="5">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>793</v>
       </c>
-      <c r="E83" s="5" t="s">
+      <c r="E83" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>2</v>
+        <v>814</v>
       </c>
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
@@ -7039,19 +7004,19 @@
     </row>
     <row r="84" spans="3:15">
       <c r="C84" s="5">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>793</v>
       </c>
-      <c r="E84" s="5" t="s">
-        <v>19</v>
+      <c r="E84" s="11" t="s">
+        <v>396</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>78</v>
+        <v>401</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>2</v>
+        <v>814</v>
       </c>
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
@@ -7064,25 +7029,29 @@
     </row>
     <row r="85" spans="3:15">
       <c r="C85" s="5">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>793</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>794</v>
+        <v>396</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>578</v>
+        <v>360</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>812</v>
-      </c>
-      <c r="I85" s="5"/>
-      <c r="J85" s="5"/>
+        <v>800</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="J85" s="5">
+        <v>1500</v>
+      </c>
       <c r="K85" s="5"/>
       <c r="L85" s="5"/>
       <c r="M85" s="5"/>
@@ -7091,19 +7060,19 @@
     </row>
     <row r="86" spans="3:15">
       <c r="C86" s="5">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>793</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>794</v>
+        <v>396</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>174</v>
+        <v>358</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>2</v>
+        <v>815</v>
       </c>
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
@@ -7114,19 +7083,31 @@
       <c r="N86" s="7"/>
       <c r="O86" s="2"/>
     </row>
-    <row r="87" spans="3:15" ht="15">
+    <row r="87" spans="3:15">
       <c r="C87" s="5">
-        <v>86</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>825</v>
-      </c>
-      <c r="E87" s="11"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
+        <v>121</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>793</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="J87" s="5">
+        <v>1000</v>
+      </c>
       <c r="K87" s="5"/>
       <c r="L87" s="5"/>
       <c r="M87" s="5"/>
@@ -7135,37 +7116,51 @@
     </row>
     <row r="88" spans="3:15">
       <c r="C88" s="5">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>817</v>
+        <v>793</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>818</v>
-      </c>
-      <c r="F88" s="5">
-        <v>2</v>
-      </c>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5"/>
+        <v>396</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="J88" s="5">
+        <v>1</v>
+      </c>
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
       <c r="M88" s="5"/>
       <c r="N88" s="7"/>
       <c r="O88" s="2"/>
     </row>
-    <row r="89" spans="3:15" ht="15">
+    <row r="89" spans="3:15">
       <c r="C89" s="5">
-        <v>88</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>826</v>
-      </c>
-      <c r="E89" s="11"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
+        <v>123</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>793</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
@@ -7177,23 +7172,29 @@
     </row>
     <row r="90" spans="3:15">
       <c r="C90" s="5">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>793</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>518</v>
+        <v>396</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>523</v>
+        <v>480</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H90" s="11"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="J90" s="5">
+        <v>2</v>
+      </c>
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
       <c r="M90" s="5"/>
@@ -7202,22 +7203,22 @@
     </row>
     <row r="91" spans="3:15">
       <c r="C91" s="5">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>793</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>518</v>
+        <v>396</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>533</v>
+        <v>472</v>
       </c>
       <c r="G91" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
       <c r="I91" s="5" t="b">
         <v>1</v>
@@ -7231,28 +7232,28 @@
     </row>
     <row r="92" spans="3:15">
       <c r="C92" s="5">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>835</v>
+        <v>793</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>518</v>
+        <v>396</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>533</v>
+        <v>476</v>
       </c>
       <c r="G92" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>801</v>
+        <v>817</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>799</v>
-      </c>
-      <c r="J92" s="5" t="s">
-        <v>827</v>
+        <v>798</v>
+      </c>
+      <c r="J92" s="5">
+        <v>65534</v>
       </c>
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
@@ -7260,16 +7261,22 @@
       <c r="N92" s="7"/>
       <c r="O92" s="2"/>
     </row>
-    <row r="93" spans="3:15" ht="15">
+    <row r="93" spans="3:15">
       <c r="C93" s="5">
-        <v>92</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>828</v>
-      </c>
-      <c r="E93" s="11"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
+        <v>127</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>793</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
@@ -7281,21 +7288,29 @@
     </row>
     <row r="94" spans="3:15">
       <c r="C94" s="5">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>819</v>
+        <v>793</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>818</v>
-      </c>
-      <c r="F94" s="5">
-        <v>2</v>
-      </c>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="5"/>
-      <c r="J94" s="5"/>
+        <v>396</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="J94" s="5">
+        <v>65535</v>
+      </c>
       <c r="K94" s="5"/>
       <c r="L94" s="5"/>
       <c r="M94" s="5"/>
@@ -7304,16 +7319,16 @@
     </row>
     <row r="95" spans="3:15">
       <c r="C95" s="5">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>793</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>518</v>
+        <v>396</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>99</v>
+        <v>471</v>
       </c>
       <c r="G95" s="5" t="s">
         <v>2</v>
@@ -7329,23 +7344,29 @@
     </row>
     <row r="96" spans="3:15">
       <c r="C96" s="5">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>793</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>794</v>
+        <v>396</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>99</v>
+        <v>470</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H96" s="5"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>818</v>
+      </c>
       <c r="K96" s="5"/>
       <c r="L96" s="5"/>
       <c r="M96" s="5"/>
@@ -7354,83 +7375,101 @@
     </row>
     <row r="97" spans="3:15">
       <c r="C97" s="5">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="D97" s="8" t="s">
+        <v>793</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H97" s="5" t="s">
         <v>817</v>
       </c>
-      <c r="E97" s="11" t="s">
+      <c r="I97" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="J97" s="5" t="s">
         <v>818</v>
       </c>
-      <c r="F97" s="5">
-        <v>2</v>
-      </c>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="5"/>
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
       <c r="M97" s="5"/>
       <c r="N97" s="7"/>
       <c r="O97" s="2"/>
     </row>
-    <row r="98" spans="3:15" ht="15">
+    <row r="98" spans="3:15">
       <c r="C98" s="5">
-        <v>97</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>830</v>
-      </c>
-      <c r="E98" s="6"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
+        <v>132</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>793</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>819</v>
+      </c>
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
       <c r="L98" s="5"/>
       <c r="M98" s="5"/>
-      <c r="N98" s="16"/>
+      <c r="N98" s="7"/>
       <c r="O98" s="2"/>
     </row>
     <row r="99" spans="3:15">
       <c r="C99" s="5">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>802</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>19</v>
+        <v>793</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>396</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>20</v>
+        <v>382</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H99" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>819</v>
+      </c>
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
       <c r="L99" s="5"/>
       <c r="M99" s="5"/>
-      <c r="N99" s="16"/>
+      <c r="N99" s="7"/>
       <c r="O99" s="2"/>
     </row>
     <row r="100" spans="3:15">
       <c r="C100" s="5">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>802</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>19</v>
+        <v>793</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>396</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="G100" s="5" t="s">
         <v>2</v>
@@ -7441,31 +7480,28 @@
       <c r="K100" s="5"/>
       <c r="L100" s="5"/>
       <c r="M100" s="5"/>
-      <c r="N100" s="16"/>
+      <c r="N100" s="7"/>
+      <c r="O100" s="2"/>
     </row>
     <row r="101" spans="3:15">
       <c r="C101" s="5">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>803</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>0</v>
+        <v>801</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>769</v>
-      </c>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5" t="s">
-        <v>808</v>
-      </c>
-      <c r="I101" s="5" t="s">
-        <v>829</v>
-      </c>
-      <c r="J101" s="5" t="s">
-        <v>806</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H101" s="11"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
       <c r="M101" s="5"/>
@@ -7473,22 +7509,22 @@
     </row>
     <row r="102" spans="3:15">
       <c r="C102" s="5">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>802</v>
-      </c>
-      <c r="E102" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="E102" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>821</v>
-      </c>
-      <c r="H102" s="5"/>
-      <c r="I102" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
       <c r="L102" s="5"/>
@@ -7497,21 +7533,23 @@
     </row>
     <row r="103" spans="3:15">
       <c r="C103" s="5">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>802</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>19</v>
+        <v>820</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>821</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>831</v>
+        <v>578</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H103" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>822</v>
+      </c>
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
@@ -7519,23 +7557,23 @@
       <c r="M103" s="5"/>
       <c r="N103" s="16"/>
     </row>
-    <row r="104" spans="3:15">
+    <row r="104" spans="3:15" ht="14.25">
       <c r="C104" s="5">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>802</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>19</v>
+        <v>820</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>821</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>22</v>
+        <v>184</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>821</v>
-      </c>
-      <c r="H104" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="H104" s="17"/>
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
@@ -7543,17 +7581,23 @@
       <c r="M104" s="5"/>
       <c r="N104" s="16"/>
     </row>
-    <row r="105" spans="3:15" ht="15">
+    <row r="105" spans="3:15">
       <c r="C105" s="5">
-        <v>104</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>832</v>
-      </c>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="5"/>
-      <c r="H105" s="5"/>
+        <v>139</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>820</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H105" s="11"/>
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
@@ -7563,988 +7607,70 @@
     </row>
     <row r="106" spans="3:15">
       <c r="C106" s="5">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>802</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>19</v>
+        <v>820</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>821</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="G106" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H106" s="5"/>
-      <c r="I106" s="5"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="11"/>
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
       <c r="L106" s="5"/>
       <c r="M106" s="5"/>
       <c r="N106" s="16"/>
-      <c r="O106" s="2"/>
-    </row>
-    <row r="107" spans="3:15">
-      <c r="C107" s="5">
-        <v>106</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>802</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F107" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G107" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H107" s="5"/>
-      <c r="I107" s="5"/>
-      <c r="J107" s="5"/>
-      <c r="K107" s="5"/>
-      <c r="L107" s="5"/>
-      <c r="M107" s="5"/>
-      <c r="N107" s="16"/>
-    </row>
-    <row r="108" spans="3:15">
-      <c r="C108" s="5">
-        <v>107</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>803</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>769</v>
-      </c>
-      <c r="G108" s="5"/>
-      <c r="H108" s="5" t="s">
-        <v>804</v>
-      </c>
-      <c r="I108" s="5" t="s">
-        <v>805</v>
-      </c>
-      <c r="J108" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="K108" s="5"/>
-      <c r="L108" s="5"/>
-      <c r="M108" s="5"/>
-      <c r="N108" s="16"/>
-    </row>
-    <row r="109" spans="3:15" ht="15">
-      <c r="C109" s="5">
-        <v>108</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>796</v>
-      </c>
-      <c r="E109" s="11"/>
-      <c r="F109" s="11"/>
-      <c r="G109" s="11"/>
-      <c r="H109" s="5"/>
-      <c r="I109" s="5"/>
-      <c r="J109" s="5"/>
-      <c r="K109" s="5"/>
-      <c r="L109" s="5"/>
-      <c r="M109" s="5"/>
-      <c r="N109" s="7"/>
-    </row>
-    <row r="110" spans="3:15" ht="15">
-      <c r="C110" s="5">
-        <v>109</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>795</v>
-      </c>
-      <c r="E110" s="11"/>
-      <c r="F110" s="5"/>
-      <c r="G110" s="5"/>
-      <c r="H110" s="11"/>
-      <c r="I110" s="11"/>
-      <c r="J110" s="5"/>
-      <c r="K110" s="5"/>
-      <c r="L110" s="5"/>
-      <c r="M110" s="5"/>
-      <c r="N110" s="7"/>
-    </row>
-    <row r="111" spans="3:15">
-      <c r="C111" s="5">
-        <v>110</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>807</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G111" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H111" s="5"/>
-      <c r="I111" s="5"/>
-      <c r="J111" s="5"/>
-      <c r="K111" s="5"/>
-      <c r="L111" s="5"/>
-      <c r="M111" s="5"/>
-      <c r="N111" s="16"/>
-    </row>
-    <row r="112" spans="3:15">
-      <c r="C112" s="5">
-        <v>111</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>807</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G112" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H112" s="5"/>
-      <c r="I112" s="5"/>
-      <c r="J112" s="5"/>
-      <c r="K112" s="5"/>
-      <c r="L112" s="5"/>
-      <c r="M112" s="5"/>
-      <c r="N112" s="16"/>
-    </row>
-    <row r="113" spans="3:15">
-      <c r="C113" s="5">
-        <v>112</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>807</v>
-      </c>
-      <c r="E113" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="F113" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="G113" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H113" s="5" t="s">
-        <v>808</v>
-      </c>
-      <c r="I113" s="5"/>
-      <c r="J113" s="5"/>
-      <c r="K113" s="5"/>
-      <c r="L113" s="5"/>
-      <c r="M113" s="5"/>
-      <c r="N113" s="16"/>
-    </row>
-    <row r="114" spans="3:15">
-      <c r="C114" s="5">
-        <v>113</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>807</v>
-      </c>
-      <c r="E114" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="F114" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="G114" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H114" s="11"/>
-      <c r="I114" s="5"/>
-      <c r="J114" s="5"/>
-      <c r="K114" s="5"/>
-      <c r="L114" s="5"/>
-      <c r="M114" s="5"/>
-      <c r="N114" s="16"/>
-    </row>
-    <row r="115" spans="3:15">
-      <c r="C115" s="5">
-        <v>114</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>802</v>
-      </c>
-      <c r="E115" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="F115" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G115" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H115" s="11"/>
-      <c r="I115" s="11"/>
-      <c r="J115" s="5"/>
-      <c r="K115" s="5"/>
-      <c r="L115" s="5"/>
-      <c r="M115" s="5"/>
-      <c r="N115" s="16"/>
-    </row>
-    <row r="116" spans="3:15">
-      <c r="C116" s="5">
-        <v>115</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>819</v>
-      </c>
-      <c r="E116" s="11" t="s">
-        <v>818</v>
-      </c>
-      <c r="F116" s="5">
-        <v>2</v>
-      </c>
-      <c r="G116" s="5"/>
-      <c r="H116" s="11"/>
-      <c r="I116" s="11"/>
-      <c r="J116" s="5"/>
-      <c r="K116" s="5"/>
-      <c r="L116" s="5"/>
-      <c r="M116" s="5"/>
-      <c r="N116" s="16"/>
-    </row>
-    <row r="117" spans="3:15">
-      <c r="C117" s="5">
-        <v>116</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="E117" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F117" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G117" s="5" t="s">
-        <v>820</v>
-      </c>
-      <c r="H117" s="5"/>
-      <c r="I117" s="5"/>
-      <c r="J117" s="5"/>
-      <c r="K117" s="5"/>
-      <c r="L117" s="5"/>
-      <c r="M117" s="5"/>
-      <c r="N117" s="7"/>
-      <c r="O117" s="2"/>
-    </row>
-    <row r="118" spans="3:15">
-      <c r="C118" s="5">
-        <v>117</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="E118" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G118" s="5" t="s">
-        <v>820</v>
-      </c>
-      <c r="H118" s="5"/>
-      <c r="I118" s="5"/>
-      <c r="J118" s="5"/>
-      <c r="K118" s="5"/>
-      <c r="L118" s="5"/>
-      <c r="M118" s="5"/>
-      <c r="N118" s="7"/>
-      <c r="O118" s="2"/>
-    </row>
-    <row r="119" spans="3:15">
-      <c r="C119" s="5">
-        <v>118</v>
-      </c>
-      <c r="D119" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="E119" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="F119" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="G119" s="5" t="s">
-        <v>820</v>
-      </c>
-      <c r="H119" s="5"/>
-      <c r="I119" s="5"/>
-      <c r="J119" s="5"/>
-      <c r="K119" s="5"/>
-      <c r="L119" s="5"/>
-      <c r="M119" s="5"/>
-      <c r="N119" s="7"/>
-      <c r="O119" s="2"/>
-    </row>
-    <row r="120" spans="3:15">
-      <c r="C120" s="5">
-        <v>119</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="E120" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="F120" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="G120" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H120" s="5" t="s">
-        <v>801</v>
-      </c>
-      <c r="I120" s="5" t="s">
-        <v>799</v>
-      </c>
-      <c r="J120" s="5">
-        <v>1500</v>
-      </c>
-      <c r="K120" s="5"/>
-      <c r="L120" s="5"/>
-      <c r="M120" s="5"/>
-      <c r="N120" s="7"/>
-      <c r="O120" s="2"/>
-    </row>
-    <row r="121" spans="3:15">
-      <c r="C121" s="5">
-        <v>120</v>
-      </c>
-      <c r="D121" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="E121" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="G121" s="5" t="s">
-        <v>821</v>
-      </c>
-      <c r="H121" s="5"/>
-      <c r="I121" s="5"/>
-      <c r="J121" s="5"/>
-      <c r="K121" s="5"/>
-      <c r="L121" s="5"/>
-      <c r="M121" s="5"/>
-      <c r="N121" s="7"/>
-      <c r="O121" s="2"/>
-    </row>
-    <row r="122" spans="3:15">
-      <c r="C122" s="5">
-        <v>121</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="E122" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="F122" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="G122" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H122" s="5" t="s">
-        <v>801</v>
-      </c>
-      <c r="I122" s="5" t="s">
-        <v>799</v>
-      </c>
-      <c r="J122" s="5">
-        <v>1000</v>
-      </c>
-      <c r="K122" s="5"/>
-      <c r="L122" s="5"/>
-      <c r="M122" s="5"/>
-      <c r="N122" s="7"/>
-      <c r="O122" s="2"/>
-    </row>
-    <row r="123" spans="3:15">
-      <c r="C123" s="5">
-        <v>122</v>
-      </c>
-      <c r="D123" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="E123" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="F123" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="G123" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H123" s="5" t="s">
-        <v>801</v>
-      </c>
-      <c r="I123" s="5" t="s">
-        <v>799</v>
-      </c>
-      <c r="J123" s="5">
-        <v>1</v>
-      </c>
-      <c r="K123" s="5"/>
-      <c r="L123" s="5"/>
-      <c r="M123" s="5"/>
-      <c r="N123" s="7"/>
-      <c r="O123" s="2"/>
-    </row>
-    <row r="124" spans="3:15">
-      <c r="C124" s="5">
-        <v>123</v>
-      </c>
-      <c r="D124" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="E124" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="F124" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="G124" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H124" s="5"/>
-      <c r="I124" s="5"/>
-      <c r="J124" s="5"/>
-      <c r="K124" s="5"/>
-      <c r="L124" s="5"/>
-      <c r="M124" s="5"/>
-      <c r="N124" s="7"/>
-      <c r="O124" s="2"/>
-    </row>
-    <row r="125" spans="3:15">
-      <c r="C125" s="5">
-        <v>124</v>
-      </c>
-      <c r="D125" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="E125" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="F125" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="G125" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H125" s="5" t="s">
-        <v>801</v>
-      </c>
-      <c r="I125" s="5" t="s">
-        <v>799</v>
-      </c>
-      <c r="J125" s="5">
-        <v>2</v>
-      </c>
-      <c r="K125" s="5"/>
-      <c r="L125" s="5"/>
-      <c r="M125" s="5"/>
-      <c r="N125" s="7"/>
-      <c r="O125" s="2"/>
-    </row>
-    <row r="126" spans="3:15">
-      <c r="C126" s="5">
-        <v>125</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="E126" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="F126" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="G126" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H126" s="5" t="s">
-        <v>822</v>
-      </c>
-      <c r="I126" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J126" s="5"/>
-      <c r="K126" s="5"/>
-      <c r="L126" s="5"/>
-      <c r="M126" s="5"/>
-      <c r="N126" s="7"/>
-      <c r="O126" s="2"/>
-    </row>
-    <row r="127" spans="3:15">
-      <c r="C127" s="5">
-        <v>126</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="E127" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="F127" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="G127" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H127" s="5" t="s">
-        <v>823</v>
-      </c>
-      <c r="I127" s="5" t="s">
-        <v>799</v>
-      </c>
-      <c r="J127" s="5">
-        <v>65534</v>
-      </c>
-      <c r="K127" s="5"/>
-      <c r="L127" s="5"/>
-      <c r="M127" s="5"/>
-      <c r="N127" s="7"/>
-      <c r="O127" s="2"/>
-    </row>
-    <row r="128" spans="3:15">
-      <c r="C128" s="5">
-        <v>127</v>
-      </c>
-      <c r="D128" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="E128" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="F128" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="G128" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H128" s="5"/>
-      <c r="I128" s="5"/>
-      <c r="J128" s="5"/>
-      <c r="K128" s="5"/>
-      <c r="L128" s="5"/>
-      <c r="M128" s="5"/>
-      <c r="N128" s="7"/>
-      <c r="O128" s="2"/>
-    </row>
-    <row r="129" spans="3:15">
-      <c r="C129" s="5">
-        <v>128</v>
-      </c>
-      <c r="D129" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="E129" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="F129" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="G129" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H129" s="5" t="s">
-        <v>823</v>
-      </c>
-      <c r="I129" s="5" t="s">
-        <v>799</v>
-      </c>
-      <c r="J129" s="5">
-        <v>65535</v>
-      </c>
-      <c r="K129" s="5"/>
-      <c r="L129" s="5"/>
-      <c r="M129" s="5"/>
-      <c r="N129" s="7"/>
-      <c r="O129" s="2"/>
-    </row>
-    <row r="130" spans="3:15">
-      <c r="C130" s="5">
-        <v>129</v>
-      </c>
-      <c r="D130" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="E130" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="F130" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="G130" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H130" s="5"/>
-      <c r="I130" s="5"/>
-      <c r="J130" s="5"/>
-      <c r="K130" s="5"/>
-      <c r="L130" s="5"/>
-      <c r="M130" s="5"/>
-      <c r="N130" s="7"/>
-      <c r="O130" s="2"/>
-    </row>
-    <row r="131" spans="3:15">
-      <c r="C131" s="5">
-        <v>130</v>
-      </c>
-      <c r="D131" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="E131" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="F131" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="G131" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H131" s="5" t="s">
-        <v>823</v>
-      </c>
-      <c r="I131" s="5" t="s">
-        <v>799</v>
-      </c>
-      <c r="J131" s="5" t="s">
-        <v>833</v>
-      </c>
-      <c r="K131" s="5"/>
-      <c r="L131" s="5"/>
-      <c r="M131" s="5"/>
-      <c r="N131" s="7"/>
-      <c r="O131" s="2"/>
-    </row>
-    <row r="132" spans="3:15">
-      <c r="C132" s="5">
-        <v>131</v>
-      </c>
-      <c r="D132" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="E132" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="F132" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="G132" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H132" s="5" t="s">
-        <v>823</v>
-      </c>
-      <c r="I132" s="5" t="s">
-        <v>799</v>
-      </c>
-      <c r="J132" s="5" t="s">
-        <v>833</v>
-      </c>
-      <c r="K132" s="5"/>
-      <c r="L132" s="5"/>
-      <c r="M132" s="5"/>
-      <c r="N132" s="7"/>
-      <c r="O132" s="2"/>
-    </row>
-    <row r="133" spans="3:15">
-      <c r="C133" s="5">
-        <v>132</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="E133" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="F133" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="G133" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H133" s="5" t="s">
-        <v>834</v>
-      </c>
-      <c r="I133" s="5"/>
-      <c r="J133" s="5"/>
-      <c r="K133" s="5"/>
-      <c r="L133" s="5"/>
-      <c r="M133" s="5"/>
-      <c r="N133" s="7"/>
-      <c r="O133" s="2"/>
-    </row>
-    <row r="134" spans="3:15">
-      <c r="C134" s="5">
-        <v>133</v>
-      </c>
-      <c r="D134" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="E134" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="F134" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="G134" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H134" s="5" t="s">
-        <v>834</v>
-      </c>
-      <c r="I134" s="5"/>
-      <c r="J134" s="5"/>
-      <c r="K134" s="5"/>
-      <c r="L134" s="5"/>
-      <c r="M134" s="5"/>
-      <c r="N134" s="7"/>
-      <c r="O134" s="2"/>
-    </row>
-    <row r="135" spans="3:15">
-      <c r="C135" s="5">
-        <v>134</v>
-      </c>
-      <c r="D135" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="E135" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="F135" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G135" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H135" s="5"/>
-      <c r="I135" s="5"/>
-      <c r="J135" s="5"/>
-      <c r="K135" s="5"/>
-      <c r="L135" s="5"/>
-      <c r="M135" s="5"/>
-      <c r="N135" s="7"/>
-      <c r="O135" s="2"/>
-    </row>
-    <row r="136" spans="3:15">
-      <c r="C136" s="5">
-        <v>135</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>802</v>
-      </c>
-      <c r="E136" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F136" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G136" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H136" s="11"/>
-      <c r="I136" s="5"/>
-      <c r="J136" s="5"/>
-      <c r="K136" s="5"/>
-      <c r="L136" s="5"/>
-      <c r="M136" s="5"/>
-      <c r="N136" s="16"/>
-    </row>
-    <row r="137" spans="3:15">
-      <c r="C137" s="5">
-        <v>136</v>
-      </c>
-      <c r="D137" s="8" t="s">
-        <v>802</v>
-      </c>
-      <c r="E137" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F137" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G137" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H137" s="11"/>
-      <c r="I137" s="11"/>
-      <c r="J137" s="5"/>
-      <c r="K137" s="5"/>
-      <c r="L137" s="5"/>
-      <c r="M137" s="5"/>
-      <c r="N137" s="16"/>
-    </row>
-    <row r="138" spans="3:15">
-      <c r="C138" s="5">
-        <v>137</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>836</v>
-      </c>
-      <c r="E138" s="11" t="s">
-        <v>837</v>
-      </c>
-      <c r="F138" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="G138" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H138" s="5" t="s">
-        <v>838</v>
-      </c>
-      <c r="I138" s="5"/>
-      <c r="J138" s="5"/>
-      <c r="K138" s="5"/>
-      <c r="L138" s="5"/>
-      <c r="M138" s="5"/>
-      <c r="N138" s="16"/>
-    </row>
-    <row r="139" spans="3:15" ht="14.25">
-      <c r="C139" s="5">
-        <v>138</v>
-      </c>
-      <c r="D139" s="8" t="s">
-        <v>836</v>
-      </c>
-      <c r="E139" s="11" t="s">
-        <v>837</v>
-      </c>
-      <c r="F139" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="G139" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H139" s="17"/>
-      <c r="I139" s="5"/>
-      <c r="J139" s="5"/>
-      <c r="K139" s="5"/>
-      <c r="L139" s="5"/>
-      <c r="M139" s="5"/>
-      <c r="N139" s="16"/>
-    </row>
-    <row r="140" spans="3:15">
-      <c r="C140" s="5">
-        <v>139</v>
-      </c>
-      <c r="D140" s="8" t="s">
-        <v>836</v>
-      </c>
-      <c r="E140" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="F140" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G140" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H140" s="11"/>
-      <c r="I140" s="5"/>
-      <c r="J140" s="5"/>
-      <c r="K140" s="5"/>
-      <c r="L140" s="5"/>
-      <c r="M140" s="5"/>
-      <c r="N140" s="16"/>
-    </row>
-    <row r="141" spans="3:15">
-      <c r="C141" s="5">
-        <v>140</v>
-      </c>
-      <c r="D141" s="8" t="s">
-        <v>836</v>
-      </c>
-      <c r="E141" s="11" t="s">
-        <v>837</v>
-      </c>
-      <c r="F141" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G141" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H141" s="11"/>
-      <c r="I141" s="11"/>
-      <c r="J141" s="5"/>
-      <c r="K141" s="5"/>
-      <c r="L141" s="5"/>
-      <c r="M141" s="5"/>
-      <c r="N141" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N141">
-    <cfRule type="cellIs" dxfId="7" priority="23" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N2:N106">
+    <cfRule type="cellIs" dxfId="5" priority="23" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="24" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N136:N141">
-    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N101:N106">
+    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N136:N141">
-    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N101:N106">
+    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"Pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N9:N81">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D111:D116 D99:D104 D106:D108 D8 D136:D137 D3:D4 D10:D38 D45 D55:D81">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D76:D81 D101:D102 D43:D69 D33 D10:D26 D3:D4 D8">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G139:G141 G2:G137">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G104:G106 G2:G102">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F141">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F106">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E141">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E106">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H62" r:id="rId1"/>
+    <hyperlink ref="H50" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/NformTester/NformTester/keywordscripts/TST425_SetActionForAlarmOrEvent.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST425_SetActionForAlarmOrEvent.xlsx
@@ -1208,7 +1208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7603" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7603" uniqueCount="845">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3661,9 +3661,6 @@
     <t>SingleManual</t>
   </si>
   <si>
-    <t>"ABC GXT UPS"</t>
-  </si>
-  <si>
     <t>"Description for GXT"</t>
   </si>
   <si>
@@ -3671,10 +3668,6 @@
   </si>
   <si>
     <t>"SNMP"</t>
-  </si>
-  <si>
-    <t>10.146.83.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Pause</t>
@@ -3778,10 +3771,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ABC GXT UPS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>;Create an action, add three actions, Run-command,Email and write file.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3796,6 +3785,12 @@
   <si>
     <t xml:space="preserve">;Prerequisites 1. NformG2 software installed on windows operating System. 2. Advanced communication license must be added before adding devices. 3. User should have permission to 'Write Data Action' under Groups. 4. SNMP devices should be added before going for test action. </t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMPdevice_0$</t>
+  </si>
+  <si>
+    <t>$GXT_0$</t>
   </si>
 </sst>
 </file>
@@ -4781,8 +4776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="F77" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H109" sqref="H109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4945,7 +4940,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -4970,7 +4965,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -5014,7 +5009,7 @@
         <v>765</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C8" s="5">
         <v>7</v>
@@ -5033,19 +5028,19 @@
         <v>806</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>811</v>
+        <v>843</v>
       </c>
       <c r="J8" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>807</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="5" t="s">
         <v>808</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="M8" s="5" t="s">
         <v>809</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>810</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="2"/>
@@ -5061,7 +5056,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="5"/>
@@ -5082,7 +5077,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>19</v>
@@ -5111,7 +5106,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>19</v>
@@ -5140,7 +5135,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>306</v>
@@ -5152,7 +5147,7 @@
         <v>7</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="I12" s="5" t="b">
         <v>1</v>
@@ -5200,7 +5195,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>306</v>
@@ -5229,7 +5224,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>310</v>
@@ -5241,7 +5236,7 @@
         <v>4</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -5260,7 +5255,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>310</v>
@@ -5272,7 +5267,7 @@
         <v>4</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -5291,7 +5286,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>310</v>
@@ -5380,7 +5375,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>317</v>
@@ -5392,7 +5387,7 @@
         <v>4</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="5"/>
@@ -5411,7 +5406,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>317</v>
@@ -5423,7 +5418,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="5"/>
@@ -5450,7 +5445,7 @@
         <v>13</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="5"/>
@@ -5494,7 +5489,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>317</v>
@@ -5585,7 +5580,7 @@
         <v>4</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="I27" s="11"/>
       <c r="J27" s="5"/>
@@ -5637,7 +5632,7 @@
         <v>59</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="I29" s="11"/>
       <c r="J29" s="5"/>
@@ -5762,7 +5757,7 @@
         <v>4</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="I34" s="11"/>
       <c r="J34" s="5"/>
@@ -5789,7 +5784,7 @@
         <v>4</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="I35" s="11"/>
       <c r="J35" s="5"/>
@@ -5816,7 +5811,7 @@
         <v>4</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="I36" s="11"/>
       <c r="J36" s="5"/>
@@ -5843,7 +5838,7 @@
         <v>4</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="I37" s="11"/>
       <c r="J37" s="5"/>
@@ -5870,7 +5865,7 @@
         <v>4</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="I38" s="11"/>
       <c r="J38" s="5"/>
@@ -6043,7 +6038,7 @@
         <v>4</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
@@ -6070,7 +6065,7 @@
         <v>4</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
@@ -6176,7 +6171,7 @@
         <v>4</v>
       </c>
       <c r="H50" s="18" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
@@ -6228,7 +6223,7 @@
         <v>4</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
@@ -6255,7 +6250,7 @@
         <v>4</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
@@ -6282,7 +6277,7 @@
         <v>4</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="I54" s="11"/>
       <c r="J54" s="5"/>
@@ -6384,7 +6379,7 @@
         <v>13</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="I58" s="11"/>
       <c r="J58" s="5"/>
@@ -6411,7 +6406,7 @@
         <v>13</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="I59" s="11"/>
       <c r="J59" s="5"/>
@@ -6549,7 +6544,7 @@
         <v>76</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>306</v>
@@ -6586,7 +6581,7 @@
         <v>59</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
@@ -6674,7 +6669,7 @@
         <v>81</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="E70" s="11"/>
       <c r="F70" s="5"/>
@@ -6755,7 +6750,7 @@
         <v>56</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>807</v>
+        <v>844</v>
       </c>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
@@ -6935,10 +6930,10 @@
         <v>115</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="F81" s="5">
         <v>2</v>
@@ -6966,7 +6961,7 @@
         <v>22</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
@@ -6991,7 +6986,7 @@
         <v>83</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
@@ -7016,7 +7011,7 @@
         <v>401</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
@@ -7072,7 +7067,7 @@
         <v>358</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
@@ -7218,7 +7213,7 @@
         <v>7</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="I91" s="5" t="b">
         <v>1</v>
@@ -7247,7 +7242,7 @@
         <v>7</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="I92" s="5" t="s">
         <v>798</v>
@@ -7303,7 +7298,7 @@
         <v>7</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="I94" s="5" t="s">
         <v>798</v>
@@ -7359,13 +7354,13 @@
         <v>7</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="I96" s="5" t="s">
         <v>798</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="K96" s="5"/>
       <c r="L96" s="5"/>
@@ -7390,13 +7385,13 @@
         <v>7</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="I97" s="5" t="s">
         <v>798</v>
       </c>
       <c r="J97" s="5" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
@@ -7421,7 +7416,7 @@
         <v>4</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
@@ -7448,7 +7443,7 @@
         <v>4</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
@@ -7536,10 +7531,10 @@
         <v>137</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>578</v>
@@ -7548,7 +7543,7 @@
         <v>3</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
@@ -7562,10 +7557,10 @@
         <v>138</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>184</v>
@@ -7586,7 +7581,7 @@
         <v>139</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>585</v>
@@ -7610,10 +7605,10 @@
         <v>140</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>99</v>

--- a/NformTester/NformTester/keywordscripts/TST425_SetActionForAlarmOrEvent.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST425_SetActionForAlarmOrEvent.xlsx
@@ -1208,7 +1208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7603" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7604" uniqueCount="846">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3791,6 +3791,10 @@
   </si>
   <si>
     <t>$GXT_0$</t>
+  </si>
+  <si>
+    <t>Running Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4776,8 +4780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F77" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H109" sqref="H109"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5006,11 +5010,9 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
-        <v>765</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>821</v>
-      </c>
+        <v>845</v>
+      </c>
+      <c r="B8" s="4"/>
       <c r="C8" s="5">
         <v>7</v>
       </c>
@@ -5047,10 +5049,10 @@
     </row>
     <row r="9" spans="1:15" ht="15">
       <c r="A9" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>776</v>
+        <v>765</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>821</v>
       </c>
       <c r="C9" s="5">
         <v>8</v>
@@ -5071,8 +5073,12 @@
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>776</v>
+      </c>
       <c r="C10" s="5">
         <v>9</v>
       </c>
@@ -5098,10 +5104,8 @@
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="B11" s="15"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="5">
         <v>10</v>
       </c>
@@ -5128,7 +5132,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="5">
@@ -5161,7 +5165,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="5">
@@ -5188,7 +5192,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="5">
@@ -5217,7 +5221,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="5">
@@ -5248,7 +5252,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="5">
@@ -5278,10 +5282,10 @@
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="15" t="s">
-        <v>783</v>
-      </c>
+      <c r="A17" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="5">
         <v>16</v>
       </c>
@@ -5309,7 +5313,7 @@
     <row r="18" spans="1:15">
       <c r="A18" s="3"/>
       <c r="B18" s="15" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C18" s="5">
         <v>17</v>
@@ -5336,11 +5340,9 @@
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="3" t="s">
-        <v>785</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" s="15" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="C19" s="5">
         <v>18</v>
@@ -5368,9 +5370,11 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="3" t="s">
-        <v>786</v>
-      </c>
-      <c r="B20" s="15"/>
+        <v>785</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>776</v>
+      </c>
       <c r="C20" s="5">
         <v>19</v>
       </c>
@@ -5399,7 +5403,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="5">
@@ -5429,6 +5433,10 @@
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15">
+      <c r="A22" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="B22" s="15"/>
       <c r="C22" s="5">
         <v>21</v>
       </c>
@@ -6802,6 +6810,7 @@
       <c r="L75" s="5"/>
       <c r="M75" s="5"/>
       <c r="N75" s="7"/>
+      <c r="O75" s="2"/>
     </row>
     <row r="76" spans="3:15">
       <c r="C76" s="5">
@@ -6970,7 +6979,6 @@
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
       <c r="N82" s="7"/>
-      <c r="O82" s="2"/>
     </row>
     <row r="83" spans="3:15">
       <c r="C83" s="5">
@@ -7501,6 +7509,7 @@
       <c r="L101" s="5"/>
       <c r="M101" s="5"/>
       <c r="N101" s="16"/>
+      <c r="O101" s="2"/>
     </row>
     <row r="102" spans="3:15">
       <c r="C102" s="5">
@@ -7651,7 +7660,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D76:D81 D101:D102 D43:D69 D33 D10:D26 D3:D4 D8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D76:D81 D101:D102 D43:D69 D33 D10:D26 D8 D3:D4">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G104:G106 G2:G102">

--- a/NformTester/NformTester/keywordscripts/TST425_SetActionForAlarmOrEvent.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST425_SetActionForAlarmOrEvent.xlsx
@@ -1208,7 +1208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7604" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7471" uniqueCount="832">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3611,14 +3611,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormManaged_Devices</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>;Clear operation.</t>
   </si>
   <si>
@@ -3629,29 +3621,13 @@
     <t>;</t>
   </si>
   <si>
-    <t>Equal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
-    <t>Text</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>T</t>
   </si>
   <si>
     <t>F</t>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"testuser"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>;Add some devices.</t>
@@ -3670,38 +3646,6 @@
     <t>"SNMP"</t>
   </si>
   <si>
-    <t>Pause</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Click</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Click</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Checked</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>testpublic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"public"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3730,9 +3674,6 @@
     <t>"nform testing"</t>
   </si>
   <si>
-    <t>"test-writefile"</t>
-  </si>
-  <si>
     <t>"text"</t>
   </si>
   <si>
@@ -3740,9 +3681,6 @@
   </si>
   <si>
     <t>"2"</t>
-  </si>
-  <si>
-    <t>"C:\Nform\result.dat"</t>
   </si>
   <si>
     <t>"Run-command"</t>
@@ -3775,10 +3713,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>;should be reflected in 'Device Properties' dialog box say in SNMP and Communication tab.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>;The goal of this test is to configure and test a Set Action is to generate traps when related action set is under action.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3787,13 +3721,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMPdevice_0$</t>
-  </si>
-  <si>
-    <t>$GXT_0$</t>
-  </si>
-  <si>
     <t>Running Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_device_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_0_NAME$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_device_0_ACTIONNAME$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InputCell</t>
+  </si>
+  <si>
+    <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4025,7 +3972,21 @@
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4778,10 +4739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O106"/>
+  <dimension ref="A1:O77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="C31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4872,7 +4833,7 @@
         <v>768</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
@@ -4913,7 +4874,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
@@ -4944,7 +4905,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>842</v>
+        <v>825</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -4963,13 +4924,13 @@
         <v>773</v>
       </c>
       <c r="B6" s="10">
-        <v>41116</v>
+        <v>41449</v>
       </c>
       <c r="C6" s="5">
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>841</v>
+        <v>824</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -4988,13 +4949,13 @@
         <v>774</v>
       </c>
       <c r="B7" s="4">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="C7" s="5">
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -5010,14 +4971,14 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
-        <v>845</v>
+        <v>826</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5">
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>577</v>
@@ -5027,22 +4988,22 @@
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>843</v>
+        <v>827</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>844</v>
+        <v>828</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="2"/>
@@ -5052,13 +5013,13 @@
         <v>765</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>821</v>
+        <v>807</v>
       </c>
       <c r="C9" s="5">
         <v>8</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>839</v>
+        <v>823</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="5"/>
@@ -5083,7 +5044,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>822</v>
+        <v>808</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>19</v>
@@ -5110,7 +5071,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>822</v>
+        <v>808</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>19</v>
@@ -5139,7 +5100,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>822</v>
+        <v>808</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>306</v>
@@ -5151,7 +5112,7 @@
         <v>7</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>823</v>
+        <v>809</v>
       </c>
       <c r="I12" s="5" t="b">
         <v>1</v>
@@ -5172,7 +5133,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>756</v>
@@ -5199,7 +5160,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>822</v>
+        <v>808</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>306</v>
@@ -5228,7 +5189,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>822</v>
+        <v>808</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>310</v>
@@ -5240,7 +5201,7 @@
         <v>4</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>824</v>
+        <v>810</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -5259,7 +5220,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>822</v>
+        <v>808</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>310</v>
@@ -5271,7 +5232,7 @@
         <v>4</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>825</v>
+        <v>811</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -5290,7 +5251,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>822</v>
+        <v>808</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>310</v>
@@ -5319,7 +5280,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>316</v>
@@ -5348,7 +5309,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>316</v>
@@ -5379,7 +5340,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>822</v>
+        <v>808</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>317</v>
@@ -5391,7 +5352,7 @@
         <v>4</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>838</v>
+        <v>822</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="5"/>
@@ -5410,7 +5371,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>822</v>
+        <v>808</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>317</v>
@@ -5422,7 +5383,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>825</v>
+        <v>811</v>
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="5"/>
@@ -5441,7 +5402,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>317</v>
@@ -5453,7 +5414,7 @@
         <v>13</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>844</v>
+        <v>829</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="5"/>
@@ -5468,7 +5429,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>317</v>
@@ -5497,7 +5458,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>822</v>
+        <v>808</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>317</v>
@@ -5505,8 +5466,8 @@
       <c r="F24" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>57</v>
+      <c r="G24" s="11" t="s">
+        <v>830</v>
       </c>
       <c r="H24" s="11">
         <v>1</v>
@@ -5514,7 +5475,9 @@
       <c r="I24" s="5">
         <v>2</v>
       </c>
-      <c r="J24" s="5"/>
+      <c r="J24" s="5" t="s">
+        <v>831</v>
+      </c>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
@@ -5523,19 +5486,19 @@
     </row>
     <row r="25" spans="1:15">
       <c r="C25" s="5">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>620</v>
+        <v>317</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>321</v>
+        <v>17</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -5548,21 +5511,23 @@
     </row>
     <row r="26" spans="1:15">
       <c r="C26" s="5">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>620</v>
+        <v>310</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>17</v>
+        <v>315</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H26" s="11"/>
+        <v>59</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>822</v>
+      </c>
       <c r="I26" s="11"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
@@ -5573,23 +5538,19 @@
     </row>
     <row r="27" spans="1:15">
       <c r="C27" s="5">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>830</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="F27" s="5">
+        <v>2</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
@@ -5600,16 +5561,16 @@
     </row>
     <row r="28" spans="1:15">
       <c r="C28" s="5">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>361</v>
+        <v>310</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>17</v>
+        <v>183</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>2</v>
@@ -5625,23 +5586,21 @@
     </row>
     <row r="29" spans="1:15">
       <c r="C29" s="5">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>826</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H29" s="11"/>
       <c r="I29" s="11"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
@@ -5652,20 +5611,22 @@
     </row>
     <row r="30" spans="1:15">
       <c r="C30" s="5">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="F30" s="5">
-        <v>2</v>
-      </c>
-      <c r="G30" s="5"/>
+        <v>316</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
+      <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
@@ -5675,21 +5636,23 @@
     </row>
     <row r="31" spans="1:15">
       <c r="C31" s="5">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>310</v>
+        <v>355</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>183</v>
+        <v>256</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H31" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>815</v>
+      </c>
       <c r="I31" s="11"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
@@ -5700,21 +5663,23 @@
     </row>
     <row r="32" spans="1:15">
       <c r="C32" s="5">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H32" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>811</v>
+      </c>
       <c r="I32" s="11"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
@@ -5725,22 +5690,24 @@
     </row>
     <row r="33" spans="3:15">
       <c r="C33" s="5">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>17</v>
+        <v>356</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>816</v>
+      </c>
+      <c r="I33" s="11"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -5750,22 +5717,22 @@
     </row>
     <row r="34" spans="3:15">
       <c r="C34" s="5">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>355</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>256</v>
+        <v>357</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>831</v>
+        <v>812</v>
       </c>
       <c r="I34" s="11"/>
       <c r="J34" s="5"/>
@@ -5777,22 +5744,22 @@
     </row>
     <row r="35" spans="3:15">
       <c r="C35" s="5">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>355</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>255</v>
+        <v>360</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
       <c r="I35" s="11"/>
       <c r="J35" s="5"/>
@@ -5804,23 +5771,19 @@
     </row>
     <row r="36" spans="3:15">
       <c r="C36" s="5">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>832</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="F36" s="5">
+        <v>2</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="11"/>
       <c r="I36" s="11"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
@@ -5831,23 +5794,21 @@
     </row>
     <row r="37" spans="3:15">
       <c r="C37" s="5">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>355</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>357</v>
+        <v>17</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>827</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H37" s="11"/>
       <c r="I37" s="11"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
@@ -5858,23 +5819,19 @@
     </row>
     <row r="38" spans="3:15">
       <c r="C38" s="5">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>829</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="F38" s="5">
+        <v>2</v>
+      </c>
+      <c r="G38" s="5"/>
+      <c r="H38" s="11"/>
       <c r="I38" s="11"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
@@ -5885,18 +5842,20 @@
     </row>
     <row r="39" spans="3:15">
       <c r="C39" s="5">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="F39" s="5">
-        <v>2</v>
-      </c>
-      <c r="G39" s="5"/>
+        <v>310</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
       <c r="J39" s="5"/>
@@ -5908,22 +5867,22 @@
     </row>
     <row r="40" spans="3:15">
       <c r="C40" s="5">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>17</v>
+        <v>280</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
+      <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
@@ -5933,20 +5892,22 @@
     </row>
     <row r="41" spans="3:15">
       <c r="C41" s="5">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="F41" s="5">
-        <v>2</v>
-      </c>
-      <c r="G41" s="5"/>
+        <v>316</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
+      <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
@@ -5956,22 +5917,24 @@
     </row>
     <row r="42" spans="3:15">
       <c r="C42" s="5">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>183</v>
+        <v>256</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>817</v>
+      </c>
+      <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
@@ -5981,21 +5944,23 @@
     </row>
     <row r="43" spans="3:15">
       <c r="C43" s="5">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H43" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>811</v>
+      </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
@@ -6006,21 +5971,23 @@
     </row>
     <row r="44" spans="3:15">
       <c r="C44" s="5">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>17</v>
+        <v>337</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H44" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H44" s="18" t="s">
+        <v>818</v>
+      </c>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
@@ -6031,23 +5998,21 @@
     </row>
     <row r="45" spans="3:15">
       <c r="C45" s="5">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>332</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>256</v>
+        <v>333</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>833</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H45" s="11"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
@@ -6058,22 +6023,22 @@
     </row>
     <row r="46" spans="3:15">
       <c r="C46" s="5">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>332</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>255</v>
+        <v>333</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>825</v>
+        <v>812</v>
       </c>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
@@ -6085,21 +6050,23 @@
     </row>
     <row r="47" spans="3:15">
       <c r="C47" s="5">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>332</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>13</v>
+        <v>334</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H47" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>819</v>
+      </c>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
@@ -6110,26 +6077,24 @@
     </row>
     <row r="48" spans="3:15">
       <c r="C48" s="5">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H48" s="5">
-        <v>1</v>
-      </c>
-      <c r="I48" s="5">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>820</v>
+      </c>
+      <c r="I48" s="11"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
@@ -6139,16 +6104,16 @@
     </row>
     <row r="49" spans="3:15">
       <c r="C49" s="5">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>17</v>
+        <v>341</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>2</v>
@@ -6164,24 +6129,22 @@
     </row>
     <row r="50" spans="3:15">
       <c r="C50" s="5">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>332</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H50" s="18" t="s">
-        <v>834</v>
-      </c>
-      <c r="I50" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
@@ -6191,22 +6154,22 @@
     </row>
     <row r="51" spans="3:15">
       <c r="C51" s="5">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>332</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H51" s="11"/>
-      <c r="I51" s="5"/>
+      <c r="I51" s="11"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
@@ -6216,24 +6179,24 @@
     </row>
     <row r="52" spans="3:15">
       <c r="C52" s="5">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>827</v>
-      </c>
-      <c r="I52" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>813</v>
+      </c>
+      <c r="I52" s="11"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
@@ -6243,24 +6206,24 @@
     </row>
     <row r="53" spans="3:15">
       <c r="C53" s="5">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>835</v>
-      </c>
-      <c r="I53" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>813</v>
+      </c>
+      <c r="I53" s="11"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
@@ -6270,23 +6233,21 @@
     </row>
     <row r="54" spans="3:15">
       <c r="C54" s="5">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H54" s="11" t="s">
-        <v>836</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H54" s="11"/>
       <c r="I54" s="11"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
@@ -6297,16 +6258,16 @@
     </row>
     <row r="55" spans="3:15">
       <c r="C55" s="5">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>341</v>
+        <v>17</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>2</v>
@@ -6322,16 +6283,16 @@
     </row>
     <row r="56" spans="3:15">
       <c r="C56" s="5">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>332</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>342</v>
+        <v>17</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>2</v>
@@ -6347,16 +6308,16 @@
     </row>
     <row r="57" spans="3:15">
       <c r="C57" s="5">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>335</v>
+        <v>199</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>2</v>
@@ -6372,23 +6333,21 @@
     </row>
     <row r="58" spans="3:15">
       <c r="C58" s="5">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>349</v>
+        <v>115</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>828</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H58" s="11"/>
       <c r="I58" s="11"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
@@ -6399,24 +6358,22 @@
     </row>
     <row r="59" spans="3:15">
       <c r="C59" s="5">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>348</v>
+        <v>310</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>350</v>
+        <v>17</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H59" s="11" t="s">
-        <v>828</v>
-      </c>
-      <c r="I59" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="H59" s="11"/>
+      <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
@@ -6426,22 +6383,20 @@
     </row>
     <row r="60" spans="3:15">
       <c r="C60" s="5">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="F60" s="5">
+        <v>2</v>
+      </c>
+      <c r="G60" s="5"/>
       <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
+      <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
@@ -6451,22 +6406,22 @@
     </row>
     <row r="61" spans="3:15">
       <c r="C61" s="5">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>801</v>
+        <v>821</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>348</v>
+        <v>306</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>17</v>
+        <v>174</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
@@ -6476,22 +6431,24 @@
     </row>
     <row r="62" spans="3:15">
       <c r="C62" s="5">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>17</v>
+        <v>315</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
+        <v>60</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>817</v>
+      </c>
+      <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
@@ -6501,21 +6458,21 @@
     </row>
     <row r="63" spans="3:15">
       <c r="C63" s="5">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>310</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H63" s="11"/>
+      <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
@@ -6526,20 +6483,22 @@
     </row>
     <row r="64" spans="3:15">
       <c r="C64" s="5">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="F64" s="5">
-        <v>2</v>
-      </c>
-      <c r="G64" s="5"/>
+        <v>306</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H64" s="11"/>
-      <c r="I64" s="5"/>
+      <c r="I64" s="11"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
@@ -6549,22 +6508,20 @@
     </row>
     <row r="65" spans="3:15">
       <c r="C65" s="5">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>837</v>
+        <v>796</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
+        <v>756</v>
+      </c>
+      <c r="F65" s="5">
+        <v>2</v>
+      </c>
+      <c r="G65" s="5"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
@@ -6572,26 +6529,18 @@
       <c r="N65" s="7"/>
       <c r="O65" s="2"/>
     </row>
-    <row r="66" spans="3:15">
+    <row r="66" spans="3:15" ht="15">
       <c r="C66" s="5">
-        <v>77</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>801</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H66" s="11" t="s">
-        <v>833</v>
-      </c>
-      <c r="I66" s="5"/>
+        <v>64</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>793</v>
+      </c>
+      <c r="E66" s="11"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
@@ -6601,16 +6550,16 @@
     </row>
     <row r="67" spans="3:15">
       <c r="C67" s="5">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>801</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>310</v>
+        <v>804</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>2</v>
@@ -6622,49 +6571,51 @@
       <c r="L67" s="5"/>
       <c r="M67" s="5"/>
       <c r="N67" s="7"/>
-      <c r="O67" s="2"/>
     </row>
     <row r="68" spans="3:15">
       <c r="C68" s="5">
+        <v>66</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F68" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D68" s="8" t="s">
-        <v>801</v>
-      </c>
-      <c r="E68" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>99</v>
-      </c>
       <c r="G68" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
       <c r="N68" s="7"/>
-      <c r="O68" s="2"/>
     </row>
     <row r="69" spans="3:15">
       <c r="C69" s="5">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="F69" s="5">
-        <v>2</v>
-      </c>
-      <c r="G69" s="5"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="11"/>
+        <v>306</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>810</v>
+      </c>
+      <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
@@ -6672,17 +6623,23 @@
       <c r="N69" s="7"/>
       <c r="O69" s="2"/>
     </row>
-    <row r="70" spans="3:15" ht="15">
+    <row r="70" spans="3:15">
       <c r="C70" s="5">
-        <v>81</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>840</v>
-      </c>
-      <c r="E70" s="11"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
+        <v>68</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H70" s="11"/>
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
@@ -6693,22 +6650,22 @@
     </row>
     <row r="71" spans="3:15">
       <c r="C71" s="5">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>19</v>
+        <v>804</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>306</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
@@ -6718,117 +6675,120 @@
     </row>
     <row r="72" spans="3:15">
       <c r="C72" s="5">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="E72" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="E72" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H72" s="5"/>
+      <c r="H72" s="11"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
       <c r="M72" s="5"/>
-      <c r="N72" s="7"/>
+      <c r="N72" s="16"/>
       <c r="O72" s="2"/>
     </row>
     <row r="73" spans="3:15">
       <c r="C73" s="5">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>794</v>
+        <v>19</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>578</v>
+        <v>78</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H73" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="I73" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
       <c r="M73" s="5"/>
-      <c r="N73" s="7"/>
-      <c r="O73" s="2"/>
+      <c r="N73" s="16"/>
     </row>
     <row r="74" spans="3:15">
       <c r="C74" s="5">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>793</v>
+        <v>804</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>794</v>
+        <v>805</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>174</v>
+        <v>578</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H74" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>806</v>
+      </c>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
       <c r="M74" s="5"/>
-      <c r="N74" s="7"/>
-      <c r="O74" s="2"/>
+      <c r="N74" s="16"/>
     </row>
-    <row r="75" spans="3:15" ht="15">
+    <row r="75" spans="3:15" ht="14.25">
       <c r="C75" s="5">
-        <v>109</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>795</v>
-      </c>
-      <c r="E75" s="11"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11"/>
+        <v>73</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>805</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H75" s="17"/>
+      <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
       <c r="M75" s="5"/>
-      <c r="N75" s="7"/>
-      <c r="O75" s="2"/>
+      <c r="N75" s="16"/>
     </row>
     <row r="76" spans="3:15">
       <c r="C76" s="5">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>19</v>
+        <v>585</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>22</v>
+        <v>200</v>
       </c>
       <c r="G76" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H76" s="5"/>
+      <c r="H76" s="11"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
@@ -6838,843 +6798,70 @@
     </row>
     <row r="77" spans="3:15">
       <c r="C77" s="5">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>803</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>19</v>
+        <v>804</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>805</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="G77" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
       <c r="N77" s="16"/>
     </row>
-    <row r="78" spans="3:15">
-      <c r="C78" s="5">
-        <v>112</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>803</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H78" s="5" t="s">
-        <v>804</v>
-      </c>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-      <c r="K78" s="5"/>
-      <c r="L78" s="5"/>
-      <c r="M78" s="5"/>
-      <c r="N78" s="16"/>
-    </row>
-    <row r="79" spans="3:15">
-      <c r="C79" s="5">
-        <v>113</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>803</v>
-      </c>
-      <c r="E79" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H79" s="11"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
-      <c r="K79" s="5"/>
-      <c r="L79" s="5"/>
-      <c r="M79" s="5"/>
-      <c r="N79" s="16"/>
-    </row>
-    <row r="80" spans="3:15">
-      <c r="C80" s="5">
-        <v>114</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>801</v>
-      </c>
-      <c r="E80" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H80" s="11"/>
-      <c r="I80" s="11"/>
-      <c r="J80" s="5"/>
-      <c r="K80" s="5"/>
-      <c r="L80" s="5"/>
-      <c r="M80" s="5"/>
-      <c r="N80" s="16"/>
-    </row>
-    <row r="81" spans="3:15">
-      <c r="C81" s="5">
-        <v>115</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>811</v>
-      </c>
-      <c r="E81" s="11" t="s">
-        <v>810</v>
-      </c>
-      <c r="F81" s="5">
-        <v>2</v>
-      </c>
-      <c r="G81" s="5"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="11"/>
-      <c r="J81" s="5"/>
-      <c r="K81" s="5"/>
-      <c r="L81" s="5"/>
-      <c r="M81" s="5"/>
-      <c r="N81" s="16"/>
-    </row>
-    <row r="82" spans="3:15">
-      <c r="C82" s="5">
-        <v>116</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="E82" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>812</v>
-      </c>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
-      <c r="K82" s="5"/>
-      <c r="L82" s="5"/>
-      <c r="M82" s="5"/>
-      <c r="N82" s="7"/>
-    </row>
-    <row r="83" spans="3:15">
-      <c r="C83" s="5">
-        <v>117</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="E83" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>812</v>
-      </c>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
-      <c r="K83" s="5"/>
-      <c r="L83" s="5"/>
-      <c r="M83" s="5"/>
-      <c r="N83" s="7"/>
-      <c r="O83" s="2"/>
-    </row>
-    <row r="84" spans="3:15">
-      <c r="C84" s="5">
-        <v>118</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>812</v>
-      </c>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5"/>
-      <c r="K84" s="5"/>
-      <c r="L84" s="5"/>
-      <c r="M84" s="5"/>
-      <c r="N84" s="7"/>
-      <c r="O84" s="2"/>
-    </row>
-    <row r="85" spans="3:15">
-      <c r="C85" s="5">
-        <v>119</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="E85" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="G85" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H85" s="5" t="s">
-        <v>800</v>
-      </c>
-      <c r="I85" s="5" t="s">
-        <v>798</v>
-      </c>
-      <c r="J85" s="5">
-        <v>1500</v>
-      </c>
-      <c r="K85" s="5"/>
-      <c r="L85" s="5"/>
-      <c r="M85" s="5"/>
-      <c r="N85" s="7"/>
-      <c r="O85" s="2"/>
-    </row>
-    <row r="86" spans="3:15">
-      <c r="C86" s="5">
-        <v>120</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="E86" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="G86" s="5" t="s">
-        <v>813</v>
-      </c>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5"/>
-      <c r="K86" s="5"/>
-      <c r="L86" s="5"/>
-      <c r="M86" s="5"/>
-      <c r="N86" s="7"/>
-      <c r="O86" s="2"/>
-    </row>
-    <row r="87" spans="3:15">
-      <c r="C87" s="5">
-        <v>121</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="E87" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="G87" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H87" s="5" t="s">
-        <v>800</v>
-      </c>
-      <c r="I87" s="5" t="s">
-        <v>798</v>
-      </c>
-      <c r="J87" s="5">
-        <v>1000</v>
-      </c>
-      <c r="K87" s="5"/>
-      <c r="L87" s="5"/>
-      <c r="M87" s="5"/>
-      <c r="N87" s="7"/>
-      <c r="O87" s="2"/>
-    </row>
-    <row r="88" spans="3:15">
-      <c r="C88" s="5">
-        <v>122</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="E88" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="G88" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H88" s="5" t="s">
-        <v>800</v>
-      </c>
-      <c r="I88" s="5" t="s">
-        <v>798</v>
-      </c>
-      <c r="J88" s="5">
-        <v>1</v>
-      </c>
-      <c r="K88" s="5"/>
-      <c r="L88" s="5"/>
-      <c r="M88" s="5"/>
-      <c r="N88" s="7"/>
-      <c r="O88" s="2"/>
-    </row>
-    <row r="89" spans="3:15">
-      <c r="C89" s="5">
-        <v>123</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="E89" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="G89" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5"/>
-      <c r="K89" s="5"/>
-      <c r="L89" s="5"/>
-      <c r="M89" s="5"/>
-      <c r="N89" s="7"/>
-      <c r="O89" s="2"/>
-    </row>
-    <row r="90" spans="3:15">
-      <c r="C90" s="5">
-        <v>124</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="E90" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="G90" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H90" s="5" t="s">
-        <v>800</v>
-      </c>
-      <c r="I90" s="5" t="s">
-        <v>798</v>
-      </c>
-      <c r="J90" s="5">
-        <v>2</v>
-      </c>
-      <c r="K90" s="5"/>
-      <c r="L90" s="5"/>
-      <c r="M90" s="5"/>
-      <c r="N90" s="7"/>
-      <c r="O90" s="2"/>
-    </row>
-    <row r="91" spans="3:15">
-      <c r="C91" s="5">
-        <v>125</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="E91" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="G91" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H91" s="5" t="s">
-        <v>814</v>
-      </c>
-      <c r="I91" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J91" s="5"/>
-      <c r="K91" s="5"/>
-      <c r="L91" s="5"/>
-      <c r="M91" s="5"/>
-      <c r="N91" s="7"/>
-      <c r="O91" s="2"/>
-    </row>
-    <row r="92" spans="3:15">
-      <c r="C92" s="5">
-        <v>126</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="E92" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="G92" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H92" s="5" t="s">
-        <v>815</v>
-      </c>
-      <c r="I92" s="5" t="s">
-        <v>798</v>
-      </c>
-      <c r="J92" s="5">
-        <v>65534</v>
-      </c>
-      <c r="K92" s="5"/>
-      <c r="L92" s="5"/>
-      <c r="M92" s="5"/>
-      <c r="N92" s="7"/>
-      <c r="O92" s="2"/>
-    </row>
-    <row r="93" spans="3:15">
-      <c r="C93" s="5">
-        <v>127</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="E93" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
-      <c r="J93" s="5"/>
-      <c r="K93" s="5"/>
-      <c r="L93" s="5"/>
-      <c r="M93" s="5"/>
-      <c r="N93" s="7"/>
-      <c r="O93" s="2"/>
-    </row>
-    <row r="94" spans="3:15">
-      <c r="C94" s="5">
-        <v>128</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="E94" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="G94" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H94" s="5" t="s">
-        <v>815</v>
-      </c>
-      <c r="I94" s="5" t="s">
-        <v>798</v>
-      </c>
-      <c r="J94" s="5">
-        <v>65535</v>
-      </c>
-      <c r="K94" s="5"/>
-      <c r="L94" s="5"/>
-      <c r="M94" s="5"/>
-      <c r="N94" s="7"/>
-      <c r="O94" s="2"/>
-    </row>
-    <row r="95" spans="3:15">
-      <c r="C95" s="5">
-        <v>129</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="E95" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="G95" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5"/>
-      <c r="K95" s="5"/>
-      <c r="L95" s="5"/>
-      <c r="M95" s="5"/>
-      <c r="N95" s="7"/>
-      <c r="O95" s="2"/>
-    </row>
-    <row r="96" spans="3:15">
-      <c r="C96" s="5">
-        <v>130</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="E96" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="G96" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H96" s="5" t="s">
-        <v>815</v>
-      </c>
-      <c r="I96" s="5" t="s">
-        <v>798</v>
-      </c>
-      <c r="J96" s="5" t="s">
-        <v>816</v>
-      </c>
-      <c r="K96" s="5"/>
-      <c r="L96" s="5"/>
-      <c r="M96" s="5"/>
-      <c r="N96" s="7"/>
-      <c r="O96" s="2"/>
-    </row>
-    <row r="97" spans="3:15">
-      <c r="C97" s="5">
-        <v>131</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="E97" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="G97" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H97" s="5" t="s">
-        <v>815</v>
-      </c>
-      <c r="I97" s="5" t="s">
-        <v>798</v>
-      </c>
-      <c r="J97" s="5" t="s">
-        <v>816</v>
-      </c>
-      <c r="K97" s="5"/>
-      <c r="L97" s="5"/>
-      <c r="M97" s="5"/>
-      <c r="N97" s="7"/>
-      <c r="O97" s="2"/>
-    </row>
-    <row r="98" spans="3:15">
-      <c r="C98" s="5">
-        <v>132</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="E98" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="G98" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H98" s="5" t="s">
-        <v>817</v>
-      </c>
-      <c r="I98" s="5"/>
-      <c r="J98" s="5"/>
-      <c r="K98" s="5"/>
-      <c r="L98" s="5"/>
-      <c r="M98" s="5"/>
-      <c r="N98" s="7"/>
-      <c r="O98" s="2"/>
-    </row>
-    <row r="99" spans="3:15">
-      <c r="C99" s="5">
-        <v>133</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="E99" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="F99" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="G99" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H99" s="5" t="s">
-        <v>817</v>
-      </c>
-      <c r="I99" s="5"/>
-      <c r="J99" s="5"/>
-      <c r="K99" s="5"/>
-      <c r="L99" s="5"/>
-      <c r="M99" s="5"/>
-      <c r="N99" s="7"/>
-      <c r="O99" s="2"/>
-    </row>
-    <row r="100" spans="3:15">
-      <c r="C100" s="5">
-        <v>134</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="E100" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G100" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5"/>
-      <c r="K100" s="5"/>
-      <c r="L100" s="5"/>
-      <c r="M100" s="5"/>
-      <c r="N100" s="7"/>
-      <c r="O100" s="2"/>
-    </row>
-    <row r="101" spans="3:15">
-      <c r="C101" s="5">
-        <v>135</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>801</v>
-      </c>
-      <c r="E101" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G101" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H101" s="11"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="5"/>
-      <c r="K101" s="5"/>
-      <c r="L101" s="5"/>
-      <c r="M101" s="5"/>
-      <c r="N101" s="16"/>
-      <c r="O101" s="2"/>
-    </row>
-    <row r="102" spans="3:15">
-      <c r="C102" s="5">
-        <v>136</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>801</v>
-      </c>
-      <c r="E102" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F102" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G102" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H102" s="11"/>
-      <c r="I102" s="11"/>
-      <c r="J102" s="5"/>
-      <c r="K102" s="5"/>
-      <c r="L102" s="5"/>
-      <c r="M102" s="5"/>
-      <c r="N102" s="16"/>
-    </row>
-    <row r="103" spans="3:15">
-      <c r="C103" s="5">
-        <v>137</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>818</v>
-      </c>
-      <c r="E103" s="11" t="s">
-        <v>819</v>
-      </c>
-      <c r="F103" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="G103" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H103" s="5" t="s">
-        <v>820</v>
-      </c>
-      <c r="I103" s="5"/>
-      <c r="J103" s="5"/>
-      <c r="K103" s="5"/>
-      <c r="L103" s="5"/>
-      <c r="M103" s="5"/>
-      <c r="N103" s="16"/>
-    </row>
-    <row r="104" spans="3:15" ht="14.25">
-      <c r="C104" s="5">
-        <v>138</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>818</v>
-      </c>
-      <c r="E104" s="11" t="s">
-        <v>819</v>
-      </c>
-      <c r="F104" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="G104" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H104" s="17"/>
-      <c r="I104" s="5"/>
-      <c r="J104" s="5"/>
-      <c r="K104" s="5"/>
-      <c r="L104" s="5"/>
-      <c r="M104" s="5"/>
-      <c r="N104" s="16"/>
-    </row>
-    <row r="105" spans="3:15">
-      <c r="C105" s="5">
-        <v>139</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>818</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="F105" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G105" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H105" s="11"/>
-      <c r="I105" s="5"/>
-      <c r="J105" s="5"/>
-      <c r="K105" s="5"/>
-      <c r="L105" s="5"/>
-      <c r="M105" s="5"/>
-      <c r="N105" s="16"/>
-    </row>
-    <row r="106" spans="3:15">
-      <c r="C106" s="5">
-        <v>140</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>818</v>
-      </c>
-      <c r="E106" s="11" t="s">
-        <v>819</v>
-      </c>
-      <c r="F106" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G106" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H106" s="11"/>
-      <c r="I106" s="11"/>
-      <c r="J106" s="5"/>
-      <c r="K106" s="5"/>
-      <c r="L106" s="5"/>
-      <c r="M106" s="5"/>
-      <c r="N106" s="16"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N106">
-    <cfRule type="cellIs" dxfId="5" priority="23" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N2:N77">
+    <cfRule type="cellIs" dxfId="7" priority="23" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="24" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N101:N106">
-    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N72:N77">
+    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N101:N106">
-    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N72:N77">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D76:D81 D101:D102 D43:D69 D33 D10:D26 D8 D3:D4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D67:D73 D10:D25 D30 D3:D4 D8 D40:D65">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G104:G106 G2:G102">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G75:G77 G2:G23 G25:G73">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F106">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F77">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E106">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E77">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H50" r:id="rId1"/>
+    <hyperlink ref="H44" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
